--- a/docs/开销统计.xlsx
+++ b/docs/开销统计.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="48">
   <si>
     <t>支出项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +186,34 @@
   </si>
   <si>
     <t>4800元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他个人开销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ绿钻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>108元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅雷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +303,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -290,7 +330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,31 +346,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -615,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,317 +700,366 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>150</v>
       </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>240</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="6">
         <v>2100</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>86</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="6">
         <v>6000</v>
       </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="6">
         <v>3200</v>
       </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>6000</v>
       </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>1800</v>
       </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="7">
         <f>SUM(E2:E9)</f>
         <v>19576</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="9">
         <v>4800</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="9">
         <v>1400</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="9">
         <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="9">
         <v>15000</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="9">
         <v>9600</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="9">
         <v>4800</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="10">
         <f>SUM(E11:E16)</f>
         <v>35800</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="16">
+        <v>108</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="16">
+        <v>180</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
     </row>
     <row r="25" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="15"/>
     </row>
     <row r="26" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="17">
+        <f>SUM(E18:E23)</f>
+        <v>288</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
